--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1637922.480580996</v>
+        <v>1635670.400869789</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,7 +674,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>168.1161921880577</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -713,19 +713,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>233.1639621694955</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>98.76492394485743</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>24.50207705615916</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.4571321610379</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>342.0137165855997</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,7 +1060,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1069,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>52.0785263574582</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>356.0935459254081</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>148.5658898881317</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="H10" t="n">
-        <v>61.42978662487941</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>132.6315337216692</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>38.2187527515831</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>63.38272884730902</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>4.019807611472697</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>109.8058856274582</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>235.908211050859</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2722,10 +2722,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>60.64713141731028</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2761,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>20.38427178198108</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365897</v>
+        <v>286.522998336592</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688093255</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>101.6969570046971</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>18.70843787977265</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>160.6285048151955</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1859.132475219474</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1490.169958279063</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1490.169958279063</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1104.381705680818</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>693.3958008912109</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>278.3233507362074</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4328,10 +4328,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4361,19 +4361,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2773.818251813927</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>2773.818251813927</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520488</v>
+        <v>2421.049596543812</v>
       </c>
       <c r="X2" t="n">
-        <v>2635.871647259408</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y2" t="n">
-        <v>2245.732315283596</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
@@ -4404,7 +4404,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4413,7 +4413,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>872.3234075408147</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C4" t="n">
-        <v>872.3234075408147</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1621.028633888848</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>1621.028633888848</v>
       </c>
       <c r="V4" t="n">
-        <v>1161.740577577775</v>
+        <v>1621.028633888848</v>
       </c>
       <c r="W4" t="n">
-        <v>872.3234075408147</v>
+        <v>1331.611463851887</v>
       </c>
       <c r="X4" t="n">
-        <v>872.3234075408147</v>
+        <v>1103.62191295387</v>
       </c>
       <c r="Y4" t="n">
-        <v>872.3234075408147</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.150970528558</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4753,22 +4753,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1874.689976010252</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1874.689976010252</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1620.005487804365</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>1330.588317767405</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>1102.598766869387</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>881.8061877258572</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1992.201838557434</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C8" t="n">
-        <v>1623.239321617022</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D8" t="n">
-        <v>1264.973623010272</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>879.1853704120274</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>468.1994656224198</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4817,7 +4817,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2969.561518550836</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>2638.498631207266</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794325</v>
+        <v>2285.729975937151</v>
       </c>
       <c r="X8" t="n">
-        <v>2382.341170533246</v>
+        <v>2285.729975937151</v>
       </c>
       <c r="Y8" t="n">
-        <v>1992.201838557434</v>
+        <v>2285.729975937151</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,46 +4887,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518386</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395028</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571097</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591993</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339183</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4963,16 +4963,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4996,16 +4996,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051533</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,19 +5057,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098242</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819173</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695815</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>516.3896878871884</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>369.499740389278</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924459</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718572</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783594</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640064</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5358,19 +5358,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>699.7311804011399</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888042</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,37 +5504,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,19 +5592,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>576.8388927589092</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>407.9027098310023</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
         <v>407.9027098310023</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2442.902671851501</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2260.047837506405</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2040.446372529346</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1751.371145873544</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1496.686657667657</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1207.269487630696</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>979.2799367326791</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>758.4873575891489</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,7 +5762,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5975,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6169,13 +6169,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
         <v>1746.193029533436</v>
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>763.7541388327634</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>594.8179559048565</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>444.7013164925207</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>296.7882229101276</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>296.7882229101276</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6409,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>2023.916610740953</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1769.232122535066</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1479.814952498107</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.82540160009</v>
+        <v>1166.195182806533</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>945.4026036630031</v>
       </c>
     </row>
     <row r="29">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2253.988764961266</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6689,16 +6689,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6929,58 +6929,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,25 +7072,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1815.210065545664</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1560.525577339777</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1271.108407302817</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1271.108407302817</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7828,13 +7828,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
         <v>1746.193029533436</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>32.89260457059964</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>213.9188905722449</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23504,10 +23504,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>103.8640922513188</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>62.35543909864896</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>176.3785887617859</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>50.61478728573201</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24610,10 +24610,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>104.8770068749586</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>265.8002026072631</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
     </row>
     <row r="32">
@@ -25163,7 +25163,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>65.54986409393075</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667965</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>125.5559695740486</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>898840.2510292286</v>
+        <v>898840.2510292284</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>898840.2510292284</v>
+        <v>898840.2510292286</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>898840.2510292284</v>
+        <v>898840.2510292286</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>898840.2510292284</v>
+        <v>898840.2510292286</v>
       </c>
     </row>
     <row r="15">
@@ -26314,31 +26314,31 @@
         <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="F2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="F2" t="n">
-        <v>524645.2897985037</v>
       </c>
       <c r="G2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="L2" t="n">
         <v>524645.289798504</v>
@@ -26350,7 +26350,7 @@
         <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
         <v>524645.289798504</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
+        <v>90964.01098815708</v>
+      </c>
+      <c r="D4" t="n">
         <v>90964.01098815707</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90964.01098815704</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26442,13 +26442,13 @@
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26522,46 +26522,46 @@
         <v>-993965.5468653588</v>
       </c>
       <c r="C6" t="n">
+        <v>334779.1988622338</v>
+      </c>
+      <c r="D6" t="n">
         <v>334779.1988622339</v>
       </c>
-      <c r="D6" t="n">
-        <v>334779.1988622337</v>
-      </c>
       <c r="E6" t="n">
-        <v>86333.32195043575</v>
+        <v>86298.58402500025</v>
       </c>
       <c r="F6" t="n">
-        <v>411745.7837577908</v>
+        <v>411711.0458323552</v>
       </c>
       <c r="G6" t="n">
-        <v>411745.7837577909</v>
+        <v>411711.0458323552</v>
       </c>
       <c r="H6" t="n">
-        <v>411745.7837577908</v>
+        <v>411711.0458323553</v>
       </c>
       <c r="I6" t="n">
-        <v>411745.7837577912</v>
+        <v>411711.0458323553</v>
       </c>
       <c r="J6" t="n">
-        <v>194214.5813605133</v>
+        <v>194179.8434350778</v>
       </c>
       <c r="K6" t="n">
-        <v>411745.783757791</v>
+        <v>411711.0458323554</v>
       </c>
       <c r="L6" t="n">
-        <v>411745.783757791</v>
+        <v>411711.0458323553</v>
       </c>
       <c r="M6" t="n">
-        <v>326690.7558222791</v>
+        <v>326656.0178968436</v>
       </c>
       <c r="N6" t="n">
-        <v>411745.783757791</v>
+        <v>411711.0458323553</v>
       </c>
       <c r="O6" t="n">
-        <v>411745.7837577912</v>
+        <v>411711.0458323553</v>
       </c>
       <c r="P6" t="n">
-        <v>411745.783757791</v>
+        <v>411711.0458323553</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,10 +26793,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>126.4915721992627</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>17.83120978940644</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>49.85054907335493</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>195.04687222001</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.2767095024427</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>39.91665348666209</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,16 +27825,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>167.470422918711</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>54.82817972804537</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>102.4292820707703</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>94.35543628911113</v>
       </c>
       <c r="H10" t="n">
-        <v>83.32522828944138</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29272,10 +29272,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29493,7 +29493,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>242.2322097768135</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>316.0872899694776</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,22 +32078,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>173.8200325543356</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,19 +33272,19 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>556.7959610899863</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>163.4402738502018</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>332.1692388321076</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>103.6778299969394</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>173.4910455250332</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>35.97859357997665</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,19 +36920,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>425.454249006653</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>29.46586643587157</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>189.5729943876631</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
